--- a/distributedscheduling/resultados/high low/hilo_32_1024_100_NewMetrics.xlsx
+++ b/distributedscheduling/resultados/high low/hilo_32_1024_100_NewMetrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Estudos\TCC\git\distributedscheduling\resultados\high low\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B33E8F3-632F-4579-8386-B951C1A60720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3197BACF-9C6A-4753-8066-893385EEBD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
   <si>
     <t>Heuristica</t>
   </si>
@@ -307,10 +307,10 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -963,25 +963,25 @@
                   <c:v>MinMin</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MinMean</c:v>
+                  <c:v>OLB</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>MCT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>OLB</c:v>
+                  <c:v>MinMean</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>MinVar</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>XSufferage</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>MinVar</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>MaxMin</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MinMax</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MaxMin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -993,28 +993,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>0.96899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.875</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92400000000000004</c:v>
+                  <c:v>0.97199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94199999999999995</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94699999999999995</c:v>
+                  <c:v>0.98699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99399999999999999</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.998</c:v>
@@ -1495,13 +1495,13 @@
                   <c:v>MCT</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>MaxMin</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OLB</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MET</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MaxMin</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OLB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1516,25 +1516,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99988886325352022</c:v>
+                  <c:v>0.98121856629885518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98443876779115747</c:v>
+                  <c:v>0.92760753280672548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97984187870036199</c:v>
+                  <c:v>0.89686520454449037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96715729038429599</c:v>
+                  <c:v>0.81764940165791167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94281099859401729</c:v>
+                  <c:v>0.63963796439070708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9197175838425905</c:v>
+                  <c:v>0.38443346756940244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75707194421623503</c:v>
+                  <c:v>0.10811388599914296</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-1</c:v>
@@ -1817,7 +1817,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:shade val="58000"/>
+                  <a:shade val="72000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1837,9 +1837,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="72000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1859,7 +1857,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:shade val="86000"/>
+                  <a:tint val="72000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1879,7 +1877,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1899,7 +1899,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:tint val="86000"/>
+                  <a:tint val="44000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1920,7 +1920,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:tint val="72000"/>
+                  <a:shade val="58000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1941,7 +1941,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:tint val="58000"/>
+                  <a:tint val="86000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1962,7 +1962,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:tint val="44000"/>
+                  <a:tint val="58000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1985,28 +1985,28 @@
                   <c:v>MET</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>MinMean</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinVar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XSufferage</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OLB</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>MinMin</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>MinMean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XSufferage</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MinVar</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>MinMax</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>MCT</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>MaxMin</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OLB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2021,28 +2021,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.034</c:v>
+                  <c:v>1.0089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.016</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0549999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.296</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3260000000000001</c:v>
+                  <c:v>1.0620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4529999999999998</c:v>
+                  <c:v>1.1419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.404999999999999</c:v>
+                  <c:v>1.1639999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,13 +2324,13 @@
                   <c:v>MCT</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>MaxMin</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OLB</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MET</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MaxMin</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OLB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2342,31 +2342,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.71899999999999997</c:v>
+                  <c:v>0.71799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71899999999999997</c:v>
+                  <c:v>0.72099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77300000000000002</c:v>
+                  <c:v>0.72899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78900000000000003</c:v>
+                  <c:v>0.73299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83399999999999996</c:v>
+                  <c:v>0.74399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91900000000000004</c:v>
+                  <c:v>0.76900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5720000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7409999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,7 +2643,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:shade val="58000"/>
+                  <a:shade val="72000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -2663,9 +2663,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="72000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2685,7 +2683,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:shade val="86000"/>
+                  <a:tint val="72000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -2705,7 +2703,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2725,7 +2725,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:tint val="86000"/>
+                  <a:tint val="44000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -2746,7 +2746,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:tint val="72000"/>
+                  <a:shade val="58000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -2767,7 +2767,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:tint val="58000"/>
+                  <a:tint val="86000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -2788,7 +2788,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:tint val="44000"/>
+                  <a:tint val="58000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -2817,10 +2817,10 @@
                   <c:v>MinMean</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>MinVar</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>XSufferage</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MinVar</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>MinMax</c:v>
@@ -2847,25 +2847,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99354662167933894</c:v>
+                  <c:v>0.89302594363732191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98946250168951178</c:v>
+                  <c:v>0.883911330610337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98804355568429358</c:v>
+                  <c:v>0.8691194541959727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98210537860081215</c:v>
+                  <c:v>0.815762047013326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94318421885358827</c:v>
+                  <c:v>0.33130132428386883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93739357325106853</c:v>
+                  <c:v>0.24407874762294934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72079350488149885</c:v>
+                  <c:v>-0.72995078924036094</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-1</c:v>
@@ -5908,10 +5908,25 @@
     <sortCondition ref="B28:B37"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{78BF590B-7128-406D-8614-FF45C9FEDD22}" name="Heuristica" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{2DC599D9-D2AA-45C2-9181-20FEF5F78A36}" name="Heuristic ETC/MET ETC" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{78BF590B-7128-406D-8614-FF45C9FEDD22}" name="Heuristica" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{2DC599D9-D2AA-45C2-9181-20FEF5F78A36}" name="Heuristic ETC/MET ETC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{94AFE185-66FC-4AD5-A56F-DF0A799C7D1C}" name="Tabela4" displayName="Tabela4" ref="A73:C82" totalsRowShown="0">
+  <autoFilter ref="A73:C82" xr:uid="{94AFE185-66FC-4AD5-A56F-DF0A799C7D1C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:C82">
+    <sortCondition ref="B73:B82"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2B877C89-F561-405A-99D3-2ED3D8CD7009}" name="Heuristica"/>
+    <tableColumn id="2" xr3:uid="{85557858-9194-4746-9595-4FBAA0E469E4}" name="Tempo computacional médio"/>
+    <tableColumn id="3" xr3:uid="{4F0FDBD1-20A3-4BCE-9EB6-5C76C1DADF5C}" name="Desvio Padrão Tempo computacional"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6181,20 +6196,21 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="11" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="26" style="11" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6237,10 +6253,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="11">
-        <v>339276.39299999998</v>
+        <v>390261.6</v>
       </c>
       <c r="C2" s="12">
-        <v>9.3109999999999998E-2</v>
+        <v>6.6489999999999994E-2</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -6249,22 +6265,22 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>6941756.2000000002</v>
+        <v>8779237.5800000001</v>
       </c>
       <c r="G2" s="3">
-        <v>2.571E-2</v>
+        <v>1.5980000000000001E-2</v>
       </c>
       <c r="H2">
-        <v>0.64500000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="I2" s="3">
-        <v>8.6330000000000004E-2</v>
+        <v>6.5019999999999994E-2</v>
       </c>
       <c r="J2">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K2" s="3">
-        <v>3.3911699999999998</v>
+        <v>2.8867600000000002</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6272,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="11">
-        <v>311766.08199999999</v>
+        <v>299970.36499999999</v>
       </c>
       <c r="C3" s="12">
-        <v>3.9960000000000002E-2</v>
+        <v>1.636E-2</v>
       </c>
       <c r="D3" s="11">
-        <v>1.3260000000000001</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="E3" s="11">
-        <v>0.91900000000000004</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="F3">
-        <v>9201688.4499999993</v>
+        <v>9322526.2799999993</v>
       </c>
       <c r="G3" s="3">
-        <v>2.928E-2</v>
+        <v>1.6039999999999999E-2</v>
       </c>
       <c r="H3">
-        <v>0.92400000000000004</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="I3" s="3">
-        <v>2.7220000000000001E-2</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="J3">
         <v>0.12</v>
@@ -6307,34 +6323,34 @@
         <v>11</v>
       </c>
       <c r="B4" s="11">
-        <v>267652.59600000002</v>
+        <v>285805.43</v>
       </c>
       <c r="C4" s="12">
-        <v>5.2440000000000001E-2</v>
+        <v>1.5679999999999999E-2</v>
       </c>
       <c r="D4" s="11">
-        <v>1.034</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="E4" s="11">
-        <v>0.78900000000000003</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="F4">
-        <v>7174706.6900000004</v>
+        <v>8856120.9800000004</v>
       </c>
       <c r="G4" s="3">
-        <v>2.6620000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>0.84</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="I4" s="3">
-        <v>4.1480000000000003E-2</v>
+        <v>3.0400000000000002E-3</v>
       </c>
       <c r="J4">
-        <v>19.809999999999999</v>
+        <v>21.99</v>
       </c>
       <c r="K4" s="3">
-        <v>0.41132000000000002</v>
+        <v>0.36807000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6342,34 +6358,34 @@
         <v>19</v>
       </c>
       <c r="B5" s="11">
-        <v>243638.989</v>
+        <v>280126.02500000002</v>
       </c>
       <c r="C5" s="12">
-        <v>3.943E-2</v>
+        <v>1.6230000000000001E-2</v>
       </c>
       <c r="D5" s="11">
-        <v>1.0629999999999999</v>
+        <v>1.016</v>
       </c>
       <c r="E5" s="11">
-        <v>0.71899999999999997</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F5">
-        <v>7373353.3300000001</v>
+        <v>8911651.3699999992</v>
       </c>
       <c r="G5" s="3">
-        <v>2.6349999999999998E-2</v>
+        <v>1.5959999999999998E-2</v>
       </c>
       <c r="H5">
-        <v>0.94699999999999995</v>
+        <v>0.995</v>
       </c>
       <c r="I5" s="3">
-        <v>2.4549999999999999E-2</v>
+        <v>1.66E-3</v>
       </c>
       <c r="J5">
-        <v>63.82</v>
+        <v>52.1</v>
       </c>
       <c r="K5" s="3">
-        <v>0.16270000000000001</v>
+        <v>0.18335000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6377,34 +6393,34 @@
         <v>12</v>
       </c>
       <c r="B6" s="11">
-        <v>262176.49599999998</v>
+        <v>284112.51799999998</v>
       </c>
       <c r="C6" s="12">
-        <v>5.0459999999999998E-2</v>
+        <v>1.5570000000000001E-2</v>
       </c>
       <c r="D6" s="11">
-        <v>1.0549999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="E6" s="11">
-        <v>0.77300000000000002</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="F6">
-        <v>7322133</v>
+        <v>8862671.75</v>
       </c>
       <c r="G6" s="3">
-        <v>2.699E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="H6">
-        <v>0.875</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="I6" s="3">
-        <v>3.7440000000000001E-2</v>
+        <v>4.4799999999999996E-3</v>
       </c>
       <c r="J6">
-        <v>18.87</v>
+        <v>21.32</v>
       </c>
       <c r="K6" s="3">
-        <v>0.28653000000000001</v>
+        <v>0.32705000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6412,34 +6428,34 @@
         <v>13</v>
       </c>
       <c r="B7" s="11">
-        <v>533029.98800000001</v>
+        <v>314023.91200000001</v>
       </c>
       <c r="C7" s="12">
-        <v>3.202E-2</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="D7" s="11">
-        <v>2.4529999999999998</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="E7" s="11">
-        <v>1.5720000000000001</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="F7">
-        <v>17020398.210000001</v>
+        <v>10022571.74</v>
       </c>
       <c r="G7" s="3">
-        <v>3.2099999999999997E-2</v>
+        <v>1.7420000000000001E-2</v>
       </c>
       <c r="H7">
         <v>0.998</v>
       </c>
       <c r="I7" s="3">
-        <v>8.8000000000000003E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="J7">
-        <v>35.89</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="K7" s="3">
-        <v>0.25264999999999999</v>
+        <v>0.22742000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6447,34 +6463,34 @@
         <v>14</v>
       </c>
       <c r="B8" s="11">
-        <v>243771.38200000001</v>
+        <v>281160.277</v>
       </c>
       <c r="C8" s="12">
-        <v>3.4349999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="D8" s="11">
-        <v>1.0940000000000001</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="E8" s="11">
-        <v>0.71899999999999997</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="F8">
-        <v>7587706.3700000001</v>
+        <v>8873302.8300000001</v>
       </c>
       <c r="G8" s="3">
-        <v>2.928E-2</v>
+        <v>1.5640000000000001E-2</v>
       </c>
       <c r="H8">
-        <v>0.97299999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="I8" s="3">
-        <v>1.316E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="J8">
-        <v>19.190000000000001</v>
+        <v>21.63</v>
       </c>
       <c r="K8" s="3">
-        <v>0.29924000000000001</v>
+        <v>0.30292999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6482,34 +6498,34 @@
         <v>15</v>
       </c>
       <c r="B9" s="11">
-        <v>2626163.2969999998</v>
+        <v>329240.21999999997</v>
       </c>
       <c r="C9" s="12">
-        <v>2.9960000000000001E-2</v>
+        <v>1.736E-2</v>
       </c>
       <c r="D9" s="11">
-        <v>11.404999999999999</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="E9" s="11">
-        <v>7.7409999999999997</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="F9">
-        <v>79136652.709999993</v>
+        <v>10216659</v>
       </c>
       <c r="G9" s="3">
-        <v>2.9950000000000001E-2</v>
+        <v>1.644E-2</v>
       </c>
       <c r="H9">
-        <v>0.94199999999999995</v>
+        <v>0.97</v>
       </c>
       <c r="I9" s="3">
-        <v>1.3769999999999999E-2</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="J9">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="K9" s="3">
-        <v>2.6764299999999999</v>
+        <v>2.8063799999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6517,34 +6533,34 @@
         <v>16</v>
       </c>
       <c r="B10" s="11">
-        <v>282763.266</v>
+        <v>290167.66899999999</v>
       </c>
       <c r="C10" s="12">
-        <v>3.049E-2</v>
+        <v>1.636E-2</v>
       </c>
       <c r="D10" s="11">
-        <v>1.296</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="E10" s="11">
-        <v>0.83399999999999996</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="F10">
-        <v>8992660.9199999999</v>
+        <v>9259838.4800000004</v>
       </c>
       <c r="G10" s="3">
-        <v>3.023E-2</v>
+        <v>1.636E-2</v>
       </c>
       <c r="H10">
-        <v>0.99399999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="I10" s="3">
-        <v>2.7100000000000002E-3</v>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="J10">
-        <v>61.46</v>
+        <v>63.49</v>
       </c>
       <c r="K10" s="3">
-        <v>0.19125</v>
+        <v>0.27311000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6569,17 +6585,17 @@
         <v>19</v>
       </c>
       <c r="B14" s="11">
-        <v>243638.989</v>
+        <v>280126.02500000002</v>
       </c>
       <c r="C14" s="12">
-        <v>3.943E-2</v>
+        <v>1.6230000000000001E-2</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" ref="D14:D22" si="0">-((B14-$B$24)*2/($B$25-$B$24)-1)</f>
         <v>1</v>
       </c>
       <c r="E14" s="11">
-        <v>0.71899999999999997</v>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6587,17 +6603,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>243771.38200000001</v>
+        <v>281160.277</v>
       </c>
       <c r="C15" s="12">
-        <v>3.4349999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0.99988886325352022</v>
+        <v>0.98121856629885518</v>
       </c>
       <c r="E15" s="11">
-        <v>0.71899999999999997</v>
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6605,17 +6621,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="11">
-        <v>262176.49599999998</v>
+        <v>284112.51799999998</v>
       </c>
       <c r="C16" s="12">
-        <v>5.0459999999999998E-2</v>
+        <v>1.5570000000000001E-2</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0.98443876779115747</v>
+        <v>0.92760753280672548</v>
       </c>
       <c r="E16" s="11">
-        <v>0.77300000000000002</v>
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6623,17 +6639,17 @@
         <v>11</v>
       </c>
       <c r="B17" s="11">
-        <v>267652.59600000002</v>
+        <v>285805.43</v>
       </c>
       <c r="C17" s="12">
-        <v>5.2440000000000001E-2</v>
+        <v>1.5679999999999999E-2</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>0.97984187870036199</v>
+        <v>0.89686520454449037</v>
       </c>
       <c r="E17" s="11">
-        <v>0.78900000000000003</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6641,17 +6657,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>282763.266</v>
+        <v>290167.66899999999</v>
       </c>
       <c r="C18" s="12">
-        <v>3.049E-2</v>
+        <v>1.636E-2</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>0.96715729038429599</v>
+        <v>0.81764940165791167</v>
       </c>
       <c r="E18" s="11">
-        <v>0.83399999999999996</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6659,71 +6675,71 @@
         <v>10</v>
       </c>
       <c r="B19" s="11">
-        <v>311766.08199999999</v>
+        <v>299970.36499999999</v>
       </c>
       <c r="C19" s="12">
-        <v>3.9960000000000002E-2</v>
+        <v>1.636E-2</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>0.94281099859401729</v>
+        <v>0.63963796439070708</v>
       </c>
       <c r="E19" s="11">
-        <v>0.91900000000000004</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B20" s="11">
-        <v>339276.39299999998</v>
+        <v>314023.91200000001</v>
       </c>
       <c r="C20" s="12">
-        <v>9.3109999999999998E-2</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>0.9197175838425905</v>
+        <v>0.38443346756940244</v>
       </c>
       <c r="E20" s="11">
-        <v>1</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" s="11">
-        <v>533029.98800000001</v>
+        <v>329240.21999999997</v>
       </c>
       <c r="C21" s="12">
-        <v>3.202E-2</v>
+        <v>1.736E-2</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>0.75707194421623503</v>
+        <v>0.10811388599914296</v>
       </c>
       <c r="E21" s="11">
-        <v>1.5720000000000001</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B22" s="11">
-        <v>2626163.2969999998</v>
+        <v>390261.6</v>
       </c>
       <c r="C22" s="12">
-        <v>2.9960000000000001E-2</v>
+        <v>6.6489999999999994E-2</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="E22" s="11">
-        <v>7.7409999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6732,7 +6748,7 @@
       </c>
       <c r="B24" s="13">
         <f>SMALL(B14:B22,1)</f>
-        <v>243638.989</v>
+        <v>280126.02500000002</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6741,7 +6757,7 @@
       </c>
       <c r="B25" s="13">
         <f>LARGE(B14:B22,1)</f>
-        <v>2626163.2969999998</v>
+        <v>390261.6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -6762,66 +6778,66 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="11">
-        <v>1.034</v>
+        <v>1.0089999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B31" s="11">
-        <v>1.0549999999999999</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B32" s="11">
-        <v>1.0629999999999999</v>
+        <v>1.0109999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B33" s="11">
-        <v>1.0940000000000001</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="11">
-        <v>1.296</v>
+        <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="11">
-        <v>1.3260000000000001</v>
+        <v>1.0620000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B36" s="11">
-        <v>2.4529999999999998</v>
+        <v>1.1419999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" s="11">
-        <v>11.404999999999999</v>
+        <v>1.1639999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6845,11 +6861,11 @@
       <c r="A43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="11">
-        <v>6941756.2000000002</v>
-      </c>
-      <c r="C43" s="12">
-        <v>2.571E-2</v>
+      <c r="B43">
+        <v>8779237.5800000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.5980000000000001E-2</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" ref="D43:D51" si="1">-((B43-$B$53)*2/($B$54-$B$53)-1)</f>
@@ -6864,144 +6880,144 @@
       <c r="A44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="11">
-        <v>7174706.6900000004</v>
-      </c>
-      <c r="C44" s="12">
-        <v>2.6620000000000001E-2</v>
+      <c r="B44">
+        <v>8856120.9800000004</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="1"/>
-        <v>0.99354662167933894</v>
+        <v>0.89302594363732191</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="2"/>
-        <v>1.033557861049629</v>
+        <v>1.0087574119391811</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="11">
-        <v>7322133</v>
-      </c>
-      <c r="C45" s="12">
-        <v>2.699E-2</v>
+      <c r="B45">
+        <v>8862671.75</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.575E-2</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="1"/>
-        <v>0.98946250168951178</v>
+        <v>0.883911330610337</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="2"/>
-        <v>1.054795470921321</v>
+        <v>1.0095035781000017</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="11">
-        <v>7373353.3300000001</v>
-      </c>
-      <c r="C46" s="12">
-        <v>2.6349999999999998E-2</v>
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>8873302.8300000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.5640000000000001E-2</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="1"/>
-        <v>0.98804355568429358</v>
+        <v>0.8691194541959727</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="2"/>
-        <v>1.0621740547442446</v>
+        <v>1.0107145124098578</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="11">
-        <v>7587706.3700000001</v>
-      </c>
-      <c r="C47" s="12">
-        <v>2.928E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>8911651.3699999992</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.5959999999999998E-2</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="1"/>
-        <v>0.98210537860081215</v>
+        <v>0.815762047013326</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="2"/>
-        <v>1.0930528459066309</v>
+        <v>1.015082606979637</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="11">
-        <v>8992660.9199999999</v>
-      </c>
-      <c r="C48" s="12">
-        <v>3.023E-2</v>
+      <c r="B48">
+        <v>9259838.4800000004</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.636E-2</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="1"/>
-        <v>0.94318421885358827</v>
+        <v>0.33130132428386883</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" si="2"/>
-        <v>1.2954446484306088</v>
+        <v>1.0547428971616919</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="11">
-        <v>9201688.4499999993</v>
-      </c>
-      <c r="C49" s="12">
-        <v>2.928E-2</v>
+      <c r="B49">
+        <v>9322526.2799999993</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.6039999999999999E-2</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="1"/>
-        <v>0.93739357325106853</v>
+        <v>0.24407874762294934</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="2"/>
-        <v>1.3255562691758029</v>
+        <v>1.0618833577573599</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="11">
-        <v>17020398.210000001</v>
-      </c>
-      <c r="C50" s="12">
-        <v>3.2099999999999997E-2</v>
+      <c r="B50">
+        <v>10022571.74</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.7420000000000001E-2</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="1"/>
-        <v>0.72079350488149885</v>
+        <v>-0.72995078924036094</v>
       </c>
       <c r="E50" s="6">
         <f t="shared" si="2"/>
-        <v>2.4518864851519853</v>
+        <v>1.141622111108195</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="11">
-        <v>79136652.709999993</v>
-      </c>
-      <c r="C51" s="12">
-        <v>2.9950000000000001E-2</v>
+      <c r="B51">
+        <v>10216659</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.644E-2</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="1"/>
@@ -7009,7 +7025,7 @@
       </c>
       <c r="E51" s="8">
         <f t="shared" si="2"/>
-        <v>11.400091047565168</v>
+        <v>1.1637296413158464</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -7018,7 +7034,7 @@
       </c>
       <c r="B53" s="13">
         <f>SMALL(B43:B51,1)</f>
-        <v>6941756.2000000002</v>
+        <v>8779237.5800000001</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -7027,7 +7043,7 @@
       </c>
       <c r="B54" s="13">
         <f>LARGE(B43:B51,1)</f>
-        <v>79136652.709999993</v>
+        <v>10216659</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -7048,10 +7064,10 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>0.64500000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="C58" s="3">
-        <v>8.6330000000000004E-2</v>
+        <v>6.5019999999999994E-2</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -7061,23 +7077,23 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>0.84</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="C59" s="3">
-        <v>4.1480000000000003E-2</v>
+        <v>3.0400000000000002E-3</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>0.875</v>
+        <v>0.97</v>
       </c>
       <c r="C60" s="3">
-        <v>3.7440000000000001E-2</v>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -7087,75 +7103,75 @@
         <v>10</v>
       </c>
       <c r="B61">
-        <v>0.92400000000000004</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C61" s="3">
-        <v>2.7220000000000001E-2</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>0.94199999999999995</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C62" s="3">
-        <v>1.3769999999999999E-2</v>
+        <v>4.4799999999999996E-3</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>0.94699999999999995</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="C63" s="3">
-        <v>2.4549999999999999E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>0.97299999999999998</v>
+        <v>0.995</v>
       </c>
       <c r="C64" s="3">
-        <v>1.316E-2</v>
+        <v>1.66E-3</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>0.99399999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="C65" s="3">
-        <v>2.7100000000000002E-3</v>
+        <v>6.6E-4</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B66">
         <v>0.998</v>
       </c>
       <c r="C66" s="3">
-        <v>8.8000000000000003E-4</v>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -7166,7 +7182,7 @@
       </c>
       <c r="B68" s="13">
         <f>SMALL(B58:B66,1)</f>
-        <v>0.64500000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -7178,74 +7194,148 @@
         <v>0.998</v>
       </c>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>0.12</v>
+      </c>
+      <c r="C74">
+        <v>2.7080199999999999</v>
+      </c>
       <c r="D74"/>
       <c r="E74"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>0.13</v>
+      </c>
+      <c r="C75">
+        <v>2.8063799999999999</v>
+      </c>
       <c r="D75"/>
       <c r="E75"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>0.15</v>
+      </c>
+      <c r="C76">
+        <v>2.8867600000000002</v>
+      </c>
       <c r="D76"/>
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>21.32</v>
+      </c>
+      <c r="C77">
+        <v>0.32705000000000001</v>
+      </c>
       <c r="D77"/>
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>21.63</v>
+      </c>
+      <c r="C78">
+        <v>0.30292999999999998</v>
+      </c>
       <c r="D78"/>
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>21.99</v>
+      </c>
+      <c r="C79">
+        <v>0.36807000000000001</v>
+      </c>
       <c r="D79"/>
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="C80">
+        <v>0.22742000000000001</v>
+      </c>
       <c r="D80"/>
       <c r="E80"/>
     </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>52.1</v>
+      </c>
+      <c r="C81">
+        <v>0.18335000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>63.49</v>
+      </c>
+      <c r="C82">
+        <v>0.27311000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>